--- a/biology/Botanique/Liste_rouge_régionale_de_la_flore_vasculaire_d'Île-de-France/Liste_rouge_régionale_de_la_flore_vasculaire_d'Île-de-France.xlsx
+++ b/biology/Botanique/Liste_rouge_régionale_de_la_flore_vasculaire_d'Île-de-France/Liste_rouge_régionale_de_la_flore_vasculaire_d'Île-de-France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_de_la_flore_vasculaire_d%27%C3%8Ele-de-France</t>
+          <t>Liste_rouge_régionale_de_la_flore_vasculaire_d'Île-de-France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste rouge régionale de la flore vasculaire d'Île-de-France est une liste de taxons végétaux menacés de disparition dans les limites administratives de la région Île-de-France, établie selon la méthodologie utilisée par l'Union internationale pour la conservation de la nature (UICN) pour la création de la liste rouge de l'UICN.
-Cette liste, publiée en décembre 2011, ne concerne que les végétaux supérieurs (ptéridophytes et spermaphytes). Elle a été élaborée par le Conservatoire botanique national du Bassin parisien (CBNBP), en partenariat avec le Conseil scientifique régional du patrimoine naturel (CSRPN) et avec l'appui technique et scientifique du Comité français de l'UICN et de la Fédération des conservatoires botaniques nationaux (FCBN)[1].
-Sur les 1537 espèces de plantes vasculaires recensées dans la flore d'Île-de-France, environ un tiers d'entre elles figurent dans la liste rouge. 85 espèces (6 %) sont considérées comme disparues depuis le XVIIIe siècle et 400 (26 %) sont menacées à divers titres : 128 espèces courent un risque majeur d'extinction à court terme, 145 espèces sont en danger d'extinction et 127 sont classées comme « vulnérables »[2].
+Cette liste, publiée en décembre 2011, ne concerne que les végétaux supérieurs (ptéridophytes et spermaphytes). Elle a été élaborée par le Conservatoire botanique national du Bassin parisien (CBNBP), en partenariat avec le Conseil scientifique régional du patrimoine naturel (CSRPN) et avec l'appui technique et scientifique du Comité français de l'UICN et de la Fédération des conservatoires botaniques nationaux (FCBN).
+Sur les 1537 espèces de plantes vasculaires recensées dans la flore d'Île-de-France, environ un tiers d'entre elles figurent dans la liste rouge. 85 espèces (6 %) sont considérées comme disparues depuis le XVIIIe siècle et 400 (26 %) sont menacées à divers titres : 128 espèces courent un risque majeur d'extinction à court terme, 145 espèces sont en danger d'extinction et 127 sont classées comme « vulnérables ».
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_de_la_flore_vasculaire_d%27%C3%8Ele-de-France</t>
+          <t>Liste_rouge_régionale_de_la_flore_vasculaire_d'Île-de-France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Taxons disparus au niveau régional (RE)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adonis flammea Jacq., 1776,  Adonis couleur de feu
@@ -606,7 +620,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_de_la_flore_vasculaire_d%27%C3%8Ele-de-France</t>
+          <t>Liste_rouge_régionale_de_la_flore_vasculaire_d'Île-de-France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -624,7 +638,9 @@
           <t>Taxons présumés disparus au niveau régional (CR ?)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adonis aestivalis L., 1762, Adonis d'été
@@ -653,7 +669,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_de_la_flore_vasculaire_d%27%C3%8Ele-de-France</t>
+          <t>Liste_rouge_régionale_de_la_flore_vasculaire_d'Île-de-France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -671,7 +687,9 @@
           <t>Taxons en danger critique (CR)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adonis annua L., 1753, Adonis d'automne
@@ -809,7 +827,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_de_la_flore_vasculaire_d%27%C3%8Ele-de-France</t>
+          <t>Liste_rouge_régionale_de_la_flore_vasculaire_d'Île-de-France</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -828,6 +846,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -835,7 +855,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_de_la_flore_vasculaire_d%27%C3%8Ele-de-France</t>
+          <t>Liste_rouge_régionale_de_la_flore_vasculaire_d'Île-de-France</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -854,6 +874,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -861,7 +883,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_de_la_flore_vasculaire_d%27%C3%8Ele-de-France</t>
+          <t>Liste_rouge_régionale_de_la_flore_vasculaire_d'Île-de-France</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -880,6 +902,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
